--- a/data/trans_bre/P25A_9_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_9_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>67,32%</t>
+          <t>16,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-26,28%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>175,53%</t>
+          <t>-51,34%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>170,06%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 10,29</t>
+          <t>3,94; 21,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 3,98</t>
+          <t>-8,91; 3,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 11,86</t>
+          <t>4,24; 22,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-54,23; 584,87</t>
+          <t>-1,08; 34,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-84,67; 247,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,59; 1445,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-19,6; 863,8</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>135,12%</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1299,88%</t>
+          <t>299,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1051,34%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>548,95%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>47,75%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,12</t>
+          <t>-0,28; 5,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,19</t>
+          <t>0,51; 4,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 9,91</t>
+          <t>0,22; 5,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 842,97</t>
+          <t>-2,94; 6,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>120,23; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-66,9; 447,97</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>129,76%</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>372,72%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>261,8%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>68,29%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>606,93%</t>
         </is>
       </c>
     </row>
@@ -802,30 +868,40 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,58</t>
+          <t>-2,01; 4,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 3,89</t>
+          <t>-0,52; 5,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,49</t>
+          <t>-1,49; 2,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-60,78; —</t>
+          <t>0,75; 7,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,27; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -834,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>104,84%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>166,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>387,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 310,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 559,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,4; 1153,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>325,69%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>192,76%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>654,83%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>141,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 5,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 3,24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 5,05</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 9,27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24,12; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-38,49; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>38,77; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18,29; 469,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_9_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_9_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,39</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,65</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,99</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>16,61</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-51,34%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>170,06%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.434655379477933</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.762008997251657</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12.14246190677788</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>17.95672435217861</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.5628491539803122</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.905899411566611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,94; 21,34</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; 3,05</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,24; 22,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 34,84</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-19,6; 863,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.58175167451706</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.277901862425162</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4.532118233263286</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7805455057007328</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.2440171889897508</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.51224867478516</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.005783845548734</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>28.25945805817179</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>37.28468437633327</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>9.440306848137586</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>299,9%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>548,95%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>47,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 5,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 4,83</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 5,31</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 6,42</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-66,9; 447,97</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.363837477072974</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.609246070381358</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.933203559078454</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.803579068789223</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.691117382855348</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>4.46299024455277</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6230622054201256</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>97,2%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>261,8%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>68,29%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>606,93%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.1080769330907533</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4650602176292242</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.04562786999112963</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.368839844391931</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.6187298235024924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 4,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 5,23</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 2,29</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,75; 7,99</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-78,27; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.309179188644594</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.4400087042426</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.823427784280227</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.817368548945653</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>5.67103685119717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +809,191 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.708311043506959</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.07501416580922</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4611585649116463</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.51663540644703</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.279744145618054</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>3.182452709825113</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.7832891561479911</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>6.111122233752976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.442637303923316</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.1909460045285362</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.30109568456035</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.6927421959664157</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.7602939114204521</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.938525886208526</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.319051059729841</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.168453246917044</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.52758456098743</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>325,69%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>192,76%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>654,83%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>141,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 5,63</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 3,24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 5,05</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 9,27</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>24,12; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-38,49; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>38,77; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>18,29; 469,05</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.060916760808822</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.371156972666729</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.943238663962108</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.340355409417145</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.737284635997763</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.105629595925548</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>6.893976278765637</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.667552244132786</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.11016086681512</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1226337889720687</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.353152746113082</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.57768952746869</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.3541704573635523</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3859704957237889</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.3379525810244446</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2948228106975525</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.350153199248734</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.18251609556517</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.002395594902108</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.846824301847207</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>5.394759552471398</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
